--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -526,7 +526,7 @@
 </t>
   </si>
   <si>
-    <t>元になった検査や診断の依頼。【詳細参照】</t>
+    <t>元になった検査や診断の依頼に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>元になった検査や診断の依頼に関する情報。</t>
@@ -552,7 +552,7 @@
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>登録|部分的|予備|ファイナル + / registered | partial | preliminary | final +</t>
+    <t>診断レポートのステータス。</t>
   </si>
   <si>
     <t>The status of the diagnostic report.　診断レポートのステータス。</t>
@@ -602,10 +602,10 @@
 </t>
   </si>
   <si>
-    <t>サービスカテゴリー。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
   </si>
   <si>
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
@@ -895,7 +895,7 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの名前/コード。【詳細参照】</t>
+    <t>診断レポートを説明するコードまたは名前。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートを説明するコードまたは名前。</t>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートが関係するヘルスケアイベントに関する情報。</t>
@@ -1089,7 +1089,7 @@
 Period</t>
   </si>
   <si>
-    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
+    <t>診断レポートの作成日時。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの作成日時。</t>
@@ -1126,7 +1126,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンが作成された日時。【詳細参照】</t>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時。【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンの診断レポートが医療者に提供/確定された日時。</t>
@@ -1160,10 +1160,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに責任をもつ診断サービス（部門）/担当者。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス（部門）/担当者に関する情報。</t>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報。</t>
   </si>
   <si>
     <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.
@@ -1193,7 +1193,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>結果の一次解釈者。【詳細参照】</t>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報。</t>
@@ -1214,10 +1214,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートのもとになった検体。【詳細参照】</t>
-  </si>
-  <si>
-    <t>この診断レポートのもとになった検体に関する詳細情報。</t>
+    <t>診断レポートのもとになった検体に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートのもとになった検体に関する情報。</t>
   </si>
   <si>
     <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.
@@ -1242,7 +1242,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果。Observationsリソースが参照される。【詳細参照】</t>
+    <t>診断レポートの一部となるObservationsに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>[Observations](observation.html)  that are part of this diagnostic report.
@@ -1270,7 +1270,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートに関連づけれられたDICOM検査画像に関する情報。</t>
@@ -1295,7 +1295,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけられたメディア。【詳細参照】</t>
+    <t>診断レポートに関連づけられたメディアに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートに関連づけられたメディアに関する情報。</t>
@@ -1380,7 +1380,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈/インプレッション）。【詳細参照】</t>
+    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）。</t>
   </si>
   <si>
     <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.
@@ -1403,10 +1403,10 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの要約的な結論（解釈/インプレッション）を表す1つ以上のコード。</t>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
@@ -1433,7 +1433,7 @@
 </t>
   </si>
   <si>
-    <t>発行されたレポート全体。【詳細参照】</t>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）。【詳細参照】</t>
   </si>
   <si>
     <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）。</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -526,10 +526,10 @@
 </t>
   </si>
   <si>
-    <t>元になった検査や診断の依頼に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>元になった検査や診断の依頼に関する情報。</t>
+    <t>元になった検査や診断の依頼に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>元になった検査や診断の依頼に関する情報</t>
   </si>
   <si>
     <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.
@@ -552,7 +552,7 @@
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>診断レポートのステータス。</t>
+    <t>診断レポートのステータス</t>
   </si>
   <si>
     <t>The status of the diagnostic report.　診断レポートのステータス。</t>
@@ -602,10 +602,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
   </si>
   <si>
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
@@ -895,10 +895,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを説明するコードまたは名前。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートを説明するコードまたは名前。</t>
+    <t>診断レポートを説明するコードまたは名前【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを説明するコードまたは名前</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
@@ -1018,7 +1018,7 @@
     <t>The subject of the report - usually, but not always, the patient　レポートの対象、常にではないが、通常は患者</t>
   </si>
   <si>
-    <t>診断レポートの対象患者に関する情報。</t>
+    <t>診断レポートの対象患者に関する情報</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -1052,10 +1052,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートが関係するヘルスケアイベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートが関係するヘルスケアイベントに関する情報。</t>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -1089,10 +1089,10 @@
 Period</t>
   </si>
   <si>
-    <t>診断レポートの作成日時。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの作成日時。</t>
+    <t>診断レポートの作成日時【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの作成日時</t>
   </si>
   <si>
     <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.
@@ -1126,10 +1126,10 @@
 </t>
   </si>
   <si>
-    <t>このバージョンの診断レポートが医療者に提供/確定された日時。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このバージョンの診断レポートが医療者に提供/確定された日時。</t>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時</t>
   </si>
   <si>
     <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.
@@ -1160,10 +1160,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報。</t>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報</t>
   </si>
   <si>
     <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.
@@ -1193,10 +1193,10 @@
 Reported by</t>
   </si>
   <si>
-    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報。</t>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報</t>
   </si>
   <si>
     <t>Might not be the same entity that takes responsibility for the clinical report.
@@ -1214,10 +1214,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートのもとになった検体に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートのもとになった検体に関する情報。</t>
+    <t>診断レポートのもとになった検体に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートのもとになった検体に関する情報</t>
   </si>
   <si>
     <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.
@@ -1242,7 +1242,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの一部となるObservationsに関する情報。【詳細参照】</t>
+    <t>診断レポートの一部となるObservationsに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>[Observations](observation.html)  that are part of this diagnostic report.
@@ -1270,10 +1270,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報。</t>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報</t>
   </si>
   <si>
     <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.
@@ -1295,10 +1295,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけられたメディアに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけられたメディアに関する情報。</t>
+    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけられたメディアに関する情報</t>
   </si>
   <si>
     <t>【JP Core仕様】レポート1つに対して、複数の画像・コメントがぶら下がる</t>
@@ -1380,7 +1380,7 @@
 </t>
   </si>
   <si>
-    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）。</t>
+    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）</t>
   </si>
   <si>
     <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.
@@ -1403,10 +1403,10 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード。</t>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
@@ -1433,10 +1433,10 @@
 </t>
   </si>
   <si>
-    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）。</t>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）</t>
   </si>
   <si>
     <t>"application/pdf" is recommended as the most reliable and interoperable in this context.
@@ -4335,7 +4335,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -944,7 +944,7 @@
     <t>laboratoryCode</t>
   </si>
   <si>
-    <t>検体検査レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+    <t>検体検査レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している【詳細参照】</t>
   </si>
   <si>
     <t>検体検査レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
